--- a/client_settings_sample.xlsx
+++ b/client_settings_sample.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/develop/tri-merger/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07C639-3934-134B-A360-4124B702C4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>クライアント名</t>
   </si>
@@ -41,73 +22,39 @@
     <t>集計対象の質問文</t>
   </si>
   <si>
-    <t>あなたの年代性別を教えてください。</t>
-  </si>
-  <si>
-    <t>若鶴</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ワカツル </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>あなたがお住まいの都道府県をお知らせください。</t>
-  </si>
-  <si>
-    <t>家族構成を教えてください。</t>
-  </si>
-  <si>
-    <t>あなたの年収を教えてください。</t>
-  </si>
-  <si>
-    <t>社会人経験は何年間ですか？</t>
-  </si>
-  <si>
-    <t>最終学歴を教えてください。</t>
-  </si>
-  <si>
-    <t>あなたのお住いの家賃を教えてください。</t>
-  </si>
-  <si>
-    <t>あなたに当てはまる選択肢をお知らせください。</t>
-  </si>
-  <si>
-    <t>ハイボール缶を週1以上飲酒している方にお伺いいたします。あなたが食事のお供にしたいスモーキーなハイボールはどちらでしょうか？（単一選択）</t>
-  </si>
-  <si>
-    <t>ハイボール缶を週1以上飲酒している方にお伺いいたします。ウイスキーを楽しみたい人にあなたが最もおすすめのスモーキーなハイボールはどちらでしょうか？（単一選択）</t>
-  </si>
-  <si>
-    <t>ハイボール缶を週1以上飲酒している方にお伺いいたします。あなたが最も飲みごたえがあると思うスモーキーなハイボールはどちらでしょうか？（単一選択）</t>
-  </si>
-  <si>
-    <t>ハイボール缶を週1以上飲酒している方にお伺いいたします。あなたがお酒好きにおすすめしたいスモーキーなハイボール缶はどちらでしょうか？（単一選択）</t>
+    <t>A社</t>
+  </si>
+  <si>
+    <t>B社</t>
+  </si>
+  <si>
+    <t>（ここにA社が集計したい1つ目の質問文を記入）</t>
+  </si>
+  <si>
+    <t>（ここにA社が集計したい2つ目の質問文を記入）</t>
+  </si>
+  <si>
+    <t>（ここにB社が集計したい質問文を記入）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -153,18 +100,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -452,15 +391,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -472,18 +408,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -491,84 +427,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>